--- a/Code/Results/Cases/Case_3_185/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_185/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.638453965360469</v>
+        <v>2.035694872141079</v>
       </c>
       <c r="C2">
-        <v>0.1082473127521553</v>
+        <v>0.0320291313009875</v>
       </c>
       <c r="D2">
-        <v>0.001353782196162889</v>
+        <v>0.007403928998831688</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.645944648520427</v>
+        <v>4.527041862629872</v>
       </c>
       <c r="G2">
-        <v>0.0008714422964918434</v>
+        <v>0.002662128419459988</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08425710626416638</v>
+        <v>0.2025864728366589</v>
       </c>
       <c r="K2">
-        <v>1.44655143745149</v>
+        <v>1.476498679640741</v>
       </c>
       <c r="L2">
-        <v>0.1409410319080777</v>
+        <v>0.2969469157344946</v>
       </c>
       <c r="M2">
-        <v>0.3041896146220751</v>
+        <v>0.4424505019053129</v>
       </c>
       <c r="N2">
-        <v>2.798425799165017</v>
+        <v>4.805848590608093</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.471188941858543</v>
+        <v>2.005020316188791</v>
       </c>
       <c r="C3">
-        <v>0.09349156542099024</v>
+        <v>0.02787730805349042</v>
       </c>
       <c r="D3">
-        <v>0.001241422382667778</v>
+        <v>0.007423560904857851</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.549942133230019</v>
+        <v>4.517611846578887</v>
       </c>
       <c r="G3">
-        <v>0.0008782539019735736</v>
+        <v>0.002666457437551046</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08485024032931499</v>
+        <v>0.2031645383232572</v>
       </c>
       <c r="K3">
-        <v>1.283371015614193</v>
+        <v>1.443347790476111</v>
       </c>
       <c r="L3">
-        <v>0.1315684466527216</v>
+        <v>0.296313459523283</v>
       </c>
       <c r="M3">
-        <v>0.2757611294768694</v>
+        <v>0.4378898275139242</v>
       </c>
       <c r="N3">
-        <v>2.810209765170683</v>
+        <v>4.813582738122179</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.370612374062461</v>
+        <v>1.987258056098369</v>
       </c>
       <c r="C4">
-        <v>0.08453310451086793</v>
+        <v>0.02533135446243762</v>
       </c>
       <c r="D4">
-        <v>0.001172117503853265</v>
+        <v>0.007439657779967135</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.494209499520437</v>
+        <v>4.51332765514924</v>
       </c>
       <c r="G4">
-        <v>0.0008825666353512485</v>
+        <v>0.002669257677515449</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08526194725024361</v>
+        <v>0.2035509152456498</v>
       </c>
       <c r="K4">
-        <v>1.185050487737016</v>
+        <v>1.423838058129604</v>
       </c>
       <c r="L4">
-        <v>0.1259845756197819</v>
+        <v>0.2960433045902207</v>
       </c>
       <c r="M4">
-        <v>0.2586982748797908</v>
+        <v>0.4353074513802397</v>
       </c>
       <c r="N4">
-        <v>2.819584103696357</v>
+        <v>4.819218206949401</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.330116502705465</v>
+        <v>1.980289621505818</v>
       </c>
       <c r="C5">
-        <v>0.08090381572179695</v>
+        <v>0.02429462227439672</v>
       </c>
       <c r="D5">
-        <v>0.001143738585824394</v>
+        <v>0.007447241191099963</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.472260718048403</v>
+        <v>4.511960660552077</v>
       </c>
       <c r="G5">
-        <v>0.0008843577803940945</v>
+        <v>0.002670434670860079</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08544147490116671</v>
+        <v>0.2037162895117071</v>
       </c>
       <c r="K5">
-        <v>1.145411433407389</v>
+        <v>1.416100252027917</v>
       </c>
       <c r="L5">
-        <v>0.1237496076960127</v>
+        <v>0.2959631465779182</v>
       </c>
       <c r="M5">
-        <v>0.2518361600351042</v>
+        <v>0.4343099765852578</v>
       </c>
       <c r="N5">
-        <v>2.823921946058036</v>
+        <v>4.821737668984241</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.323420539228152</v>
+        <v>1.979148823110762</v>
       </c>
       <c r="C6">
-        <v>0.08030234772849099</v>
+        <v>0.02412251809255395</v>
       </c>
       <c r="D6">
-        <v>0.001139016576224172</v>
+        <v>0.007448562460497854</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.468660938036066</v>
+        <v>4.511756559205764</v>
       </c>
       <c r="G6">
-        <v>0.0008846572573409653</v>
+        <v>0.002670632279426954</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08547198975596615</v>
+        <v>0.2037442287579392</v>
       </c>
       <c r="K6">
-        <v>1.138853989748156</v>
+        <v>1.414828236188953</v>
       </c>
       <c r="L6">
-        <v>0.1233808699501253</v>
+        <v>0.2959516460652836</v>
       </c>
       <c r="M6">
-        <v>0.2507020048722559</v>
+        <v>0.4341476625023866</v>
       </c>
       <c r="N6">
-        <v>2.824672948015831</v>
+        <v>4.822169490277361</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.370064305595037</v>
+        <v>1.987162984476385</v>
       </c>
       <c r="C7">
-        <v>0.08448407751892262</v>
+        <v>0.02531736971347698</v>
       </c>
       <c r="D7">
-        <v>0.001171735396562568</v>
+        <v>0.007439755897584277</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.493910460047815</v>
+        <v>4.513307685210918</v>
       </c>
       <c r="G7">
-        <v>0.0008825906538482951</v>
+        <v>0.002669273405355362</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08526432108121007</v>
+        <v>0.2035531134416555</v>
       </c>
       <c r="K7">
-        <v>1.184514226768442</v>
+        <v>1.423732842589203</v>
       </c>
       <c r="L7">
-        <v>0.1259542732167844</v>
+        <v>0.296042102273546</v>
       </c>
       <c r="M7">
-        <v>0.2586053705761131</v>
+        <v>0.4352937768454481</v>
       </c>
       <c r="N7">
-        <v>2.819640534712462</v>
+        <v>4.819251282546816</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.580312277822429</v>
+        <v>2.024895920392623</v>
       </c>
       <c r="C8">
-        <v>0.1031358150949728</v>
+        <v>0.03059686342962209</v>
       </c>
       <c r="D8">
-        <v>0.001315067846615392</v>
+        <v>0.007409863253360349</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.612147825286513</v>
+        <v>4.523477945511118</v>
       </c>
       <c r="G8">
-        <v>0.0008737644278359463</v>
+        <v>0.002663591618729224</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08445163418702784</v>
+        <v>0.2027792735776259</v>
       </c>
       <c r="K8">
-        <v>1.389870905697876</v>
+        <v>1.464892891666977</v>
       </c>
       <c r="L8">
-        <v>0.1376723421268338</v>
+        <v>0.2967038812149738</v>
       </c>
       <c r="M8">
-        <v>0.2943013492913806</v>
+        <v>0.4408327976415869</v>
       </c>
       <c r="N8">
-        <v>2.802032421789576</v>
+        <v>4.808331293837526</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.011647327028527</v>
+        <v>2.107391729197502</v>
       </c>
       <c r="C9">
-        <v>0.1407249943608377</v>
+        <v>0.0409792241174074</v>
       </c>
       <c r="D9">
-        <v>0.001596904765957419</v>
+        <v>0.007383018766535798</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.871724508335205</v>
+        <v>4.555367420138737</v>
       </c>
       <c r="G9">
-        <v>0.0008574477297218262</v>
+        <v>0.002653572789122065</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08324455373151807</v>
+        <v>0.2015105564555135</v>
       </c>
       <c r="K9">
-        <v>1.809576479158551</v>
+        <v>1.552315972726234</v>
       </c>
       <c r="L9">
-        <v>0.162129319485274</v>
+        <v>0.2989418464846096</v>
       </c>
       <c r="M9">
-        <v>0.3677833618566524</v>
+        <v>0.4534216734663588</v>
       </c>
       <c r="N9">
-        <v>2.785458089439928</v>
+        <v>4.793953918302208</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.34347795647966</v>
+        <v>2.173188169605112</v>
       </c>
       <c r="C10">
-        <v>0.1692761769279088</v>
+        <v>0.04863020533551321</v>
       </c>
       <c r="D10">
-        <v>0.001810169861613531</v>
+        <v>0.007382279694958527</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.082703575422045</v>
+        <v>4.586082947470288</v>
       </c>
       <c r="G10">
-        <v>0.0008459995155548627</v>
+        <v>0.002646889367872603</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08260786184766289</v>
+        <v>0.200729160615662</v>
       </c>
       <c r="K10">
-        <v>2.131563926698959</v>
+        <v>1.620649399530976</v>
       </c>
       <c r="L10">
-        <v>0.1811839345261106</v>
+        <v>0.3011567071208106</v>
       </c>
       <c r="M10">
-        <v>0.4244559179456715</v>
+        <v>0.4637224405779605</v>
       </c>
       <c r="N10">
-        <v>2.785721859727147</v>
+        <v>4.787684591540895</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.498498175283089</v>
+        <v>2.204248543371023</v>
       </c>
       <c r="C11">
-        <v>0.1825466984948463</v>
+        <v>0.05211700840814615</v>
       </c>
       <c r="D11">
-        <v>0.001910204136272853</v>
+        <v>0.007385987365736923</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.183918472362478</v>
+        <v>4.601639893361096</v>
       </c>
       <c r="G11">
-        <v>0.0008408928411257292</v>
+        <v>0.002643994449450487</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08237611081527163</v>
+        <v>0.2004062185596851</v>
       </c>
       <c r="K11">
-        <v>2.281811267373712</v>
+        <v>1.652630851347624</v>
       </c>
       <c r="L11">
-        <v>0.1901337784027035</v>
+        <v>0.3022877172720584</v>
       </c>
       <c r="M11">
-        <v>0.4509595826795874</v>
+        <v>0.4686368137690522</v>
       </c>
       <c r="N11">
-        <v>2.78891474298274</v>
+        <v>4.785765941186327</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.557860826691638</v>
+        <v>2.216172621852877</v>
       </c>
       <c r="C12">
-        <v>0.1876198530831772</v>
+        <v>0.05343835938522545</v>
       </c>
       <c r="D12">
-        <v>0.001948692474112335</v>
+        <v>0.007387966470796314</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.223076446805635</v>
+        <v>4.607758717016651</v>
       </c>
       <c r="G12">
-        <v>0.0008389721937132911</v>
+        <v>0.002642919010080929</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08229700911273596</v>
+        <v>0.2002885894888529</v>
       </c>
       <c r="K12">
-        <v>2.3393230448483</v>
+        <v>1.664870389594967</v>
       </c>
       <c r="L12">
-        <v>0.1935675492572173</v>
+        <v>0.3027337041704499</v>
       </c>
       <c r="M12">
-        <v>0.4611125512936667</v>
+        <v>0.4705305782561595</v>
       </c>
       <c r="N12">
-        <v>2.7906003761573</v>
+        <v>4.785173674744527</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.545045400148126</v>
+        <v>2.21359734782402</v>
       </c>
       <c r="C13">
-        <v>0.1865250040454356</v>
+        <v>0.05315373846022453</v>
       </c>
       <c r="D13">
-        <v>0.001940373193226819</v>
+        <v>0.007387514758269376</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.214604855024987</v>
+        <v>4.606430790899367</v>
       </c>
       <c r="G13">
-        <v>0.0008393852790434808</v>
+        <v>0.002643149701690863</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08231365437453064</v>
+        <v>0.200313715889525</v>
       </c>
       <c r="K13">
-        <v>2.326908188131</v>
+        <v>1.662228655372161</v>
       </c>
       <c r="L13">
-        <v>0.1928259688980916</v>
+        <v>0.3026368666677826</v>
       </c>
       <c r="M13">
-        <v>0.4589205272492762</v>
+        <v>0.4701212644361377</v>
       </c>
       <c r="N13">
-        <v>2.790215559436916</v>
+        <v>4.785295256274907</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.503368297142572</v>
+        <v>2.205226295063937</v>
       </c>
       <c r="C14">
-        <v>0.1829630656093002</v>
+        <v>0.05222569685528811</v>
       </c>
       <c r="D14">
-        <v>0.001913357310705521</v>
+        <v>0.007386138697679456</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.187122919860741</v>
+        <v>4.602138728698492</v>
       </c>
       <c r="G14">
-        <v>0.0008407345735925402</v>
+        <v>0.002643905556095315</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08236942753529064</v>
+        <v>0.200396447790645</v>
       </c>
       <c r="K14">
-        <v>2.286529994350985</v>
+        <v>1.653635223144732</v>
       </c>
       <c r="L14">
-        <v>0.1904153566493463</v>
+        <v>0.3023240545047443</v>
       </c>
       <c r="M14">
-        <v>0.451792459767141</v>
+        <v>0.4687919579330568</v>
       </c>
       <c r="N14">
-        <v>2.789043658785999</v>
+        <v>4.785714523342477</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.477928146041222</v>
+        <v>2.200119899682363</v>
       </c>
       <c r="C15">
-        <v>0.1807877421591684</v>
+        <v>0.05165737335691745</v>
       </c>
       <c r="D15">
-        <v>0.001896894116185877</v>
+        <v>0.007385370528465884</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.1703999485662</v>
+        <v>4.599539373829515</v>
       </c>
       <c r="G15">
-        <v>0.0008415627224539371</v>
+        <v>0.002644371244830079</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08240472811608157</v>
+        <v>0.2004477301927636</v>
       </c>
       <c r="K15">
-        <v>2.261879767805027</v>
+        <v>1.648388278193352</v>
       </c>
       <c r="L15">
-        <v>0.1889447325124962</v>
+        <v>0.3021347511805885</v>
       </c>
       <c r="M15">
-        <v>0.4474418942229903</v>
+        <v>0.4679819888183374</v>
       </c>
       <c r="N15">
-        <v>2.788388987481738</v>
+        <v>4.785988826753169</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.333435122085405</v>
+        <v>2.171181007577559</v>
       </c>
       <c r="C16">
-        <v>0.1684152058469977</v>
+        <v>0.04840246742503496</v>
       </c>
       <c r="D16">
-        <v>0.00180370724295642</v>
+        <v>0.007382118211733513</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.076200757997213</v>
+        <v>4.585098138075239</v>
       </c>
       <c r="G16">
-        <v>0.0008463351669690267</v>
+        <v>0.002647081474494923</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08262419989284808</v>
+        <v>0.2007509187929806</v>
       </c>
       <c r="K16">
-        <v>2.121826982875206</v>
+        <v>1.618577369029282</v>
       </c>
       <c r="L16">
-        <v>0.1806050564890356</v>
+        <v>0.3010852725104556</v>
       </c>
       <c r="M16">
-        <v>0.4227394428082647</v>
+        <v>0.4634058675957675</v>
       </c>
       <c r="N16">
-        <v>2.785577916990405</v>
+        <v>4.787828766731195</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.245886398459334</v>
+        <v>2.153717019997316</v>
       </c>
       <c r="C17">
-        <v>0.1609023423122835</v>
+        <v>0.04640735530870188</v>
       </c>
       <c r="D17">
-        <v>0.001747426969753718</v>
+        <v>0.007381154136316681</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.019806774502158</v>
+        <v>4.576644629246218</v>
       </c>
       <c r="G17">
-        <v>0.0008492878573486129</v>
+        <v>0.002648781278671033</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08277389161142423</v>
+        <v>0.200945233962301</v>
       </c>
       <c r="K17">
-        <v>2.036925867368552</v>
+        <v>1.600518871919775</v>
       </c>
       <c r="L17">
-        <v>0.1755639337070392</v>
+        <v>0.3004730325449074</v>
       </c>
       <c r="M17">
-        <v>0.4077790872649061</v>
+        <v>0.4606570470430214</v>
       </c>
       <c r="N17">
-        <v>2.784664050306191</v>
+        <v>4.789196604186074</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.195908776215447</v>
+        <v>2.143778497123378</v>
       </c>
       <c r="C18">
-        <v>0.1566072484750549</v>
+        <v>0.04526041188825047</v>
       </c>
       <c r="D18">
-        <v>0.001715328056171472</v>
+        <v>0.007380980627888611</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.987858595790854</v>
+        <v>4.571931520121808</v>
       </c>
       <c r="G18">
-        <v>0.0008509957814486993</v>
+        <v>0.002649772653393414</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08286541677763992</v>
+        <v>0.2010600605687429</v>
       </c>
       <c r="K18">
-        <v>1.988443360969853</v>
+        <v>1.590216460563084</v>
       </c>
       <c r="L18">
-        <v>0.1726906681507501</v>
+        <v>0.3001325121176848</v>
       </c>
       <c r="M18">
-        <v>0.3992415165722747</v>
+        <v>0.4590975094301228</v>
       </c>
       <c r="N18">
-        <v>2.784425380290344</v>
+        <v>4.790071189512147</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.179049987652661</v>
+        <v>2.14043174738066</v>
       </c>
       <c r="C19">
-        <v>0.1551572776679819</v>
+        <v>0.04487217634930118</v>
       </c>
       <c r="D19">
-        <v>0.001704501856325535</v>
+        <v>0.007380987516866888</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.977123116512999</v>
+        <v>4.570361357226702</v>
       </c>
       <c r="G19">
-        <v>0.0008515757472931176</v>
+        <v>0.002650110670918609</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08289732796793103</v>
+        <v>0.2010994651594942</v>
       </c>
       <c r="K19">
-        <v>1.972086063744001</v>
+        <v>1.586742730497889</v>
       </c>
       <c r="L19">
-        <v>0.1717222193820263</v>
+        <v>0.3000192158491828</v>
       </c>
       <c r="M19">
-        <v>0.3963620233125198</v>
+        <v>0.4585731732342921</v>
       </c>
       <c r="N19">
-        <v>2.784392856243372</v>
+        <v>4.790382393653388</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.255166460309113</v>
+        <v>2.155565090977461</v>
       </c>
       <c r="C20">
-        <v>0.1616993471964321</v>
+        <v>0.04661967664060285</v>
       </c>
       <c r="D20">
-        <v>0.001753388792682387</v>
+        <v>0.007381217378956251</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.025758957282591</v>
+        <v>4.577529086301212</v>
       </c>
       <c r="G20">
-        <v>0.000848972553032068</v>
+        <v>0.002648598915455701</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08275739273899774</v>
+        <v>0.2009242320133033</v>
       </c>
       <c r="K20">
-        <v>2.045926963048629</v>
+        <v>1.602432499141486</v>
       </c>
       <c r="L20">
-        <v>0.176097823827746</v>
+        <v>0.3005370039172348</v>
       </c>
       <c r="M20">
-        <v>0.4093645969366122</v>
+        <v>0.4609474377896916</v>
       </c>
       <c r="N20">
-        <v>2.784731393388597</v>
+        <v>4.789041903726911</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.515591331529265</v>
+        <v>2.207680675929169</v>
       </c>
       <c r="C21">
-        <v>0.1840079315189342</v>
+        <v>0.05249825821883292</v>
       </c>
       <c r="D21">
-        <v>0.001921274499800063</v>
+        <v>0.007386527322209346</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.195171852992758</v>
+        <v>4.603393231003224</v>
       </c>
       <c r="G21">
-        <v>0.0008403379082602331</v>
+        <v>0.002643682979447789</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08235280782461629</v>
+        <v>0.2003720210102671</v>
       </c>
       <c r="K21">
-        <v>2.298372696303431</v>
+        <v>1.656155825501685</v>
       </c>
       <c r="L21">
-        <v>0.1911221649199959</v>
+        <v>0.3024154551413432</v>
       </c>
       <c r="M21">
-        <v>0.4538828744602839</v>
+        <v>0.4691815178214611</v>
       </c>
       <c r="N21">
-        <v>2.789374646705994</v>
+        <v>4.785587729347412</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.689680390401236</v>
+        <v>2.242686500021193</v>
       </c>
       <c r="C22">
-        <v>0.1988710097161714</v>
+        <v>0.05634596004475156</v>
       </c>
       <c r="D22">
-        <v>0.002034643338523878</v>
+        <v>0.007393346897282882</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.310772630428914</v>
+        <v>4.621624393042509</v>
       </c>
       <c r="G22">
-        <v>0.0008347705039478015</v>
+        <v>0.002640591341769083</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08213902913948701</v>
+        <v>0.2000382869042632</v>
       </c>
       <c r="K22">
-        <v>2.466992945054784</v>
+        <v>1.692018194362163</v>
       </c>
       <c r="L22">
-        <v>0.2012039630566562</v>
+        <v>0.3037462633042196</v>
       </c>
       <c r="M22">
-        <v>0.4836645953566219</v>
+        <v>0.4747541100189352</v>
       </c>
       <c r="N22">
-        <v>2.795205761230704</v>
+        <v>4.784112980625707</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.596383503293964</v>
+        <v>2.223916802478527</v>
       </c>
       <c r="C23">
-        <v>0.1909097866781053</v>
+        <v>0.05429182567648638</v>
       </c>
       <c r="D23">
-        <v>0.001973736691171624</v>
+        <v>0.007389402781948107</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.248600458225667</v>
+        <v>4.611772639702963</v>
       </c>
       <c r="G23">
-        <v>0.000837735494020032</v>
+        <v>0.002642230351092405</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08224837420079112</v>
+        <v>0.2002139258514752</v>
       </c>
       <c r="K23">
-        <v>2.376638454185581</v>
+        <v>1.672809055446862</v>
       </c>
       <c r="L23">
-        <v>0.1957976240027364</v>
+        <v>0.3030265674969073</v>
       </c>
       <c r="M23">
-        <v>0.4677022142335332</v>
+        <v>0.4717624425054865</v>
       </c>
       <c r="N23">
-        <v>2.79182529871278</v>
+        <v>4.784828432923064</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.250969843211521</v>
+        <v>2.154729261106468</v>
       </c>
       <c r="C24">
-        <v>0.1613389466027257</v>
+        <v>0.04652368594484813</v>
       </c>
       <c r="D24">
-        <v>0.00175069266379424</v>
+        <v>0.007381187600415728</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.023066506384509</v>
+        <v>4.577128765566755</v>
       </c>
       <c r="G24">
-        <v>0.0008491150696324932</v>
+        <v>0.002648681317770103</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08276483488053543</v>
+        <v>0.2009337172986747</v>
       </c>
       <c r="K24">
-        <v>2.041856550667745</v>
+        <v>1.601567100140272</v>
       </c>
       <c r="L24">
-        <v>0.1758563747198636</v>
+        <v>0.3005080467455699</v>
       </c>
       <c r="M24">
-        <v>0.4086475916732297</v>
+        <v>0.4608160873506293</v>
       </c>
       <c r="N24">
-        <v>2.784700057078112</v>
+        <v>4.789111569038539</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.892595855958689</v>
+        <v>2.08416388757351</v>
       </c>
       <c r="C25">
-        <v>0.1304167259002185</v>
+        <v>0.03816684817384441</v>
       </c>
       <c r="D25">
-        <v>0.001520056961529903</v>
+        <v>0.007386919869417419</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.798204821779123</v>
+        <v>4.545461230585119</v>
       </c>
       <c r="G25">
-        <v>0.000861762068935068</v>
+        <v>0.002656163664111299</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08352829669089346</v>
+        <v>0.2018272412963178</v>
       </c>
       <c r="K25">
-        <v>1.693894981146258</v>
+        <v>1.527946103996157</v>
       </c>
       <c r="L25">
-        <v>0.1553366747251985</v>
+        <v>0.2982360272937257</v>
       </c>
       <c r="M25">
-        <v>0.3474765788325556</v>
+        <v>0.4498312867634624</v>
       </c>
       <c r="N25">
-        <v>2.78787358708972</v>
+        <v>4.797089659075596</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_185/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_185/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.035694872141079</v>
+        <v>1.638453965360526</v>
       </c>
       <c r="C2">
-        <v>0.0320291313009875</v>
+        <v>0.1082473127521126</v>
       </c>
       <c r="D2">
-        <v>0.007403928998831688</v>
+        <v>0.00135378219618687</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.527041862629872</v>
+        <v>2.645944648520441</v>
       </c>
       <c r="G2">
-        <v>0.002662128419459988</v>
+        <v>0.0008714422964957171</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2025864728366589</v>
+        <v>0.08425710626421612</v>
       </c>
       <c r="K2">
-        <v>1.476498679640741</v>
+        <v>1.44655143745149</v>
       </c>
       <c r="L2">
-        <v>0.2969469157344946</v>
+        <v>0.1409410319080067</v>
       </c>
       <c r="M2">
-        <v>0.4424505019053129</v>
+        <v>0.3041896146220822</v>
       </c>
       <c r="N2">
-        <v>4.805848590608093</v>
+        <v>2.798425799165159</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.005020316188791</v>
+        <v>1.471188941858287</v>
       </c>
       <c r="C3">
-        <v>0.02787730805349042</v>
+        <v>0.09349156542069181</v>
       </c>
       <c r="D3">
-        <v>0.007423560904857851</v>
+        <v>0.001241422382794788</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4.517611846578887</v>
+        <v>2.549942133229976</v>
       </c>
       <c r="G3">
-        <v>0.002666457437551046</v>
+        <v>0.0008782539019751052</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2031645383232572</v>
+        <v>0.08485024032937893</v>
       </c>
       <c r="K3">
-        <v>1.443347790476111</v>
+        <v>1.283371015614136</v>
       </c>
       <c r="L3">
-        <v>0.296313459523283</v>
+        <v>0.1315684466527429</v>
       </c>
       <c r="M3">
-        <v>0.4378898275139242</v>
+        <v>0.2757611294768694</v>
       </c>
       <c r="N3">
-        <v>4.813582738122179</v>
+        <v>2.810209765170711</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.987258056098369</v>
+        <v>1.370612374062461</v>
       </c>
       <c r="C4">
-        <v>0.02533135446243762</v>
+        <v>0.08453310451074003</v>
       </c>
       <c r="D4">
-        <v>0.007439657779967135</v>
+        <v>0.001172117504060211</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.51332765514924</v>
+        <v>2.494209499520423</v>
       </c>
       <c r="G4">
-        <v>0.002669257677515449</v>
+        <v>0.0008825666353203856</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2035509152456498</v>
+        <v>0.0852619472502294</v>
       </c>
       <c r="K4">
-        <v>1.423838058129604</v>
+        <v>1.185050487737016</v>
       </c>
       <c r="L4">
-        <v>0.2960433045902207</v>
+        <v>0.1259845756198743</v>
       </c>
       <c r="M4">
-        <v>0.4353074513802397</v>
+        <v>0.2586982748797801</v>
       </c>
       <c r="N4">
-        <v>4.819218206949401</v>
+        <v>2.819584103696272</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.980289621505818</v>
+        <v>1.330116502705295</v>
       </c>
       <c r="C5">
-        <v>0.02429462227439672</v>
+        <v>0.08090381572196748</v>
       </c>
       <c r="D5">
-        <v>0.007447241191099963</v>
+        <v>0.001143738585815512</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.511960660552077</v>
+        <v>2.472260718048375</v>
       </c>
       <c r="G5">
-        <v>0.002670434670860079</v>
+        <v>0.0008843577804813467</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2037162895117071</v>
+        <v>0.08544147490120757</v>
       </c>
       <c r="K5">
-        <v>1.416100252027917</v>
+        <v>1.145411433407247</v>
       </c>
       <c r="L5">
-        <v>0.2959631465779182</v>
+        <v>0.1237496076959985</v>
       </c>
       <c r="M5">
-        <v>0.4343099765852578</v>
+        <v>0.2518361600351042</v>
       </c>
       <c r="N5">
-        <v>4.821737668984241</v>
+        <v>2.823921946058022</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.979148823110762</v>
+        <v>1.323420539228152</v>
       </c>
       <c r="C6">
-        <v>0.02412251809255395</v>
+        <v>0.08030234772863309</v>
       </c>
       <c r="D6">
-        <v>0.007448562460497854</v>
+        <v>0.001139016576397367</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.511756559205764</v>
+        <v>2.468660938036066</v>
       </c>
       <c r="G6">
-        <v>0.002670632279426954</v>
+        <v>0.0008846572573269036</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2037442287579392</v>
+        <v>0.08547198975601589</v>
       </c>
       <c r="K6">
-        <v>1.414828236188953</v>
+        <v>1.138853989748156</v>
       </c>
       <c r="L6">
-        <v>0.2959516460652836</v>
+        <v>0.1233808699501395</v>
       </c>
       <c r="M6">
-        <v>0.4341476625023866</v>
+        <v>0.2507020048722488</v>
       </c>
       <c r="N6">
-        <v>4.822169490277361</v>
+        <v>2.824672948015831</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.987162984476385</v>
+        <v>1.37006430559515</v>
       </c>
       <c r="C7">
-        <v>0.02531736971347698</v>
+        <v>0.08448407751872367</v>
       </c>
       <c r="D7">
-        <v>0.007439755897584277</v>
+        <v>0.001171735396666485</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.513307685210918</v>
+        <v>2.493910460047829</v>
       </c>
       <c r="G7">
-        <v>0.002669273405355362</v>
+        <v>0.0008825906538894294</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2035531134416555</v>
+        <v>0.08526432108110527</v>
       </c>
       <c r="K7">
-        <v>1.423732842589203</v>
+        <v>1.184514226768329</v>
       </c>
       <c r="L7">
-        <v>0.296042102273546</v>
+        <v>0.1259542732167702</v>
       </c>
       <c r="M7">
-        <v>0.4352937768454481</v>
+        <v>0.2586053705761238</v>
       </c>
       <c r="N7">
-        <v>4.819251282546816</v>
+        <v>2.819640534712448</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.024895920392623</v>
+        <v>1.580312277822372</v>
       </c>
       <c r="C8">
-        <v>0.03059686342962209</v>
+        <v>0.1031358150951718</v>
       </c>
       <c r="D8">
-        <v>0.007409863253360349</v>
+        <v>0.001315067846617168</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.523477945511118</v>
+        <v>2.612147825286513</v>
       </c>
       <c r="G8">
-        <v>0.002663591618729224</v>
+        <v>0.0008737644278362932</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2027792735776259</v>
+        <v>0.08445163418697099</v>
       </c>
       <c r="K8">
-        <v>1.464892891666977</v>
+        <v>1.389870905697904</v>
       </c>
       <c r="L8">
-        <v>0.2967038812149738</v>
+        <v>0.1376723421268196</v>
       </c>
       <c r="M8">
-        <v>0.4408327976415869</v>
+        <v>0.29430134929137</v>
       </c>
       <c r="N8">
-        <v>4.808331293837526</v>
+        <v>2.802032421789534</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.107391729197502</v>
+        <v>2.01164732702847</v>
       </c>
       <c r="C9">
-        <v>0.0409792241174074</v>
+        <v>0.1407249943610509</v>
       </c>
       <c r="D9">
-        <v>0.007383018766535798</v>
+        <v>0.001596904765843732</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.555367420138737</v>
+        <v>2.871724508335177</v>
       </c>
       <c r="G9">
-        <v>0.002653572789122065</v>
+        <v>0.0008574477297698714</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2015105564555135</v>
+        <v>0.08324455373145057</v>
       </c>
       <c r="K9">
-        <v>1.552315972726234</v>
+        <v>1.809576479158636</v>
       </c>
       <c r="L9">
-        <v>0.2989418464846096</v>
+        <v>0.1621293194852669</v>
       </c>
       <c r="M9">
-        <v>0.4534216734663588</v>
+        <v>0.3677833618566524</v>
       </c>
       <c r="N9">
-        <v>4.793953918302208</v>
+        <v>2.785458089439885</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.173188169605112</v>
+        <v>2.343477956479774</v>
       </c>
       <c r="C10">
-        <v>0.04863020533551321</v>
+        <v>0.169276176927454</v>
       </c>
       <c r="D10">
-        <v>0.007382279694958527</v>
+        <v>0.001810169861728994</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.586082947470288</v>
+        <v>3.082703575422045</v>
       </c>
       <c r="G10">
-        <v>0.002646889367872603</v>
+        <v>0.0008459995155559115</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.200729160615662</v>
+        <v>0.08260786184758828</v>
       </c>
       <c r="K10">
-        <v>1.620649399530976</v>
+        <v>2.131563926699016</v>
       </c>
       <c r="L10">
-        <v>0.3011567071208106</v>
+        <v>0.1811839345261106</v>
       </c>
       <c r="M10">
-        <v>0.4637224405779605</v>
+        <v>0.4244559179456928</v>
       </c>
       <c r="N10">
-        <v>4.787684591540895</v>
+        <v>2.785721859727133</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.204248543371023</v>
+        <v>2.498498175283089</v>
       </c>
       <c r="C11">
-        <v>0.05211700840814615</v>
+        <v>0.1825466984950737</v>
       </c>
       <c r="D11">
-        <v>0.007385987365736923</v>
+        <v>0.001910204136381211</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.601639893361096</v>
+        <v>3.18391847236245</v>
       </c>
       <c r="G11">
-        <v>0.002643994449450487</v>
+        <v>0.0008408928411832688</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2004062185596851</v>
+        <v>0.08237611081523966</v>
       </c>
       <c r="K11">
-        <v>1.652630851347624</v>
+        <v>2.281811267373826</v>
       </c>
       <c r="L11">
-        <v>0.3022877172720584</v>
+        <v>0.1901337784027959</v>
       </c>
       <c r="M11">
-        <v>0.4686368137690522</v>
+        <v>0.4509595826795731</v>
       </c>
       <c r="N11">
-        <v>4.785765941186327</v>
+        <v>2.788914742982683</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.216172621852877</v>
+        <v>2.557860826691638</v>
       </c>
       <c r="C12">
-        <v>0.05343835938522545</v>
+        <v>0.1876198530831772</v>
       </c>
       <c r="D12">
-        <v>0.007387966470796314</v>
+        <v>0.001948692473874303</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.607758717016651</v>
+        <v>3.223076446805635</v>
       </c>
       <c r="G12">
-        <v>0.002642919010080929</v>
+        <v>0.000838972193712692</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2002885894888529</v>
+        <v>0.08229700911273596</v>
       </c>
       <c r="K12">
-        <v>1.664870389594967</v>
+        <v>2.339323044848271</v>
       </c>
       <c r="L12">
-        <v>0.3027337041704499</v>
+        <v>0.1935675492572386</v>
       </c>
       <c r="M12">
-        <v>0.4705305782561595</v>
+        <v>0.4611125512936667</v>
       </c>
       <c r="N12">
-        <v>4.785173674744527</v>
+        <v>2.7906003761573</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.21359734782402</v>
+        <v>2.545045400148013</v>
       </c>
       <c r="C13">
-        <v>0.05315373846022453</v>
+        <v>0.1865250040452082</v>
       </c>
       <c r="D13">
-        <v>0.007387514758269376</v>
+        <v>0.001940373193349387</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.606430790899367</v>
+        <v>3.21460485502493</v>
       </c>
       <c r="G13">
-        <v>0.002643149701690863</v>
+        <v>0.000839385279043822</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.200313715889525</v>
+        <v>0.08231365437440985</v>
       </c>
       <c r="K13">
-        <v>1.662228655372161</v>
+        <v>2.326908188131114</v>
       </c>
       <c r="L13">
-        <v>0.3026368666677826</v>
+        <v>0.1928259688979708</v>
       </c>
       <c r="M13">
-        <v>0.4701212644361377</v>
+        <v>0.4589205272492478</v>
       </c>
       <c r="N13">
-        <v>4.785295256274907</v>
+        <v>2.790215559436888</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.205226295063937</v>
+        <v>2.503368297142515</v>
       </c>
       <c r="C14">
-        <v>0.05222569685528811</v>
+        <v>0.1829630656088312</v>
       </c>
       <c r="D14">
-        <v>0.007386138697679456</v>
+        <v>0.001913357310712627</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.602138728698492</v>
+        <v>3.187122919860741</v>
       </c>
       <c r="G14">
-        <v>0.002643905556095315</v>
+        <v>0.0008407345735336102</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.200396447790645</v>
+        <v>0.0823694275353084</v>
       </c>
       <c r="K14">
-        <v>1.653635223144732</v>
+        <v>2.286529994350985</v>
       </c>
       <c r="L14">
-        <v>0.3023240545047443</v>
+        <v>0.1904153566493534</v>
       </c>
       <c r="M14">
-        <v>0.4687919579330568</v>
+        <v>0.4517924597671481</v>
       </c>
       <c r="N14">
-        <v>4.785714523342477</v>
+        <v>2.789043658785999</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.200119899682363</v>
+        <v>2.477928146041052</v>
       </c>
       <c r="C15">
-        <v>0.05165737335691745</v>
+        <v>0.1807877421591684</v>
       </c>
       <c r="D15">
-        <v>0.007385370528465884</v>
+        <v>0.001896894116299563</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.599539373829515</v>
+        <v>3.170399948566228</v>
       </c>
       <c r="G15">
-        <v>0.002644371244830079</v>
+        <v>0.0008415627225132203</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2004477301927636</v>
+        <v>0.08240472811607091</v>
       </c>
       <c r="K15">
-        <v>1.648388278193352</v>
+        <v>2.261879767804999</v>
       </c>
       <c r="L15">
-        <v>0.3021347511805885</v>
+        <v>0.1889447325124962</v>
       </c>
       <c r="M15">
-        <v>0.4679819888183374</v>
+        <v>0.4474418942229903</v>
       </c>
       <c r="N15">
-        <v>4.785988826753169</v>
+        <v>2.788388987481738</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.171181007577559</v>
+        <v>2.333435122085518</v>
       </c>
       <c r="C16">
-        <v>0.04840246742503496</v>
+        <v>0.1684152058472108</v>
       </c>
       <c r="D16">
-        <v>0.007382118211733513</v>
+        <v>0.001803707242821417</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.585098138075239</v>
+        <v>3.076200757997185</v>
       </c>
       <c r="G16">
-        <v>0.002647081474494923</v>
+        <v>0.000846335166906331</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2007509187929806</v>
+        <v>0.08262419989275216</v>
       </c>
       <c r="K16">
-        <v>1.618577369029282</v>
+        <v>2.12182698287512</v>
       </c>
       <c r="L16">
-        <v>0.3010852725104556</v>
+        <v>0.1806050564888864</v>
       </c>
       <c r="M16">
-        <v>0.4634058675957675</v>
+        <v>0.4227394428082647</v>
       </c>
       <c r="N16">
-        <v>4.787828766731195</v>
+        <v>2.785577916990391</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.153717019997316</v>
+        <v>2.245886398459618</v>
       </c>
       <c r="C17">
-        <v>0.04640735530870188</v>
+        <v>0.160902342312724</v>
       </c>
       <c r="D17">
-        <v>0.007381154136316681</v>
+        <v>0.001747426969849641</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.576644629246218</v>
+        <v>3.019806774502115</v>
       </c>
       <c r="G17">
-        <v>0.002648781278671033</v>
+        <v>0.0008492878573453865</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.200945233962301</v>
+        <v>0.08277389161125726</v>
       </c>
       <c r="K17">
-        <v>1.600518871919775</v>
+        <v>2.036925867368552</v>
       </c>
       <c r="L17">
-        <v>0.3004730325449074</v>
+        <v>0.1755639337071102</v>
       </c>
       <c r="M17">
-        <v>0.4606570470430214</v>
+        <v>0.4077790872649274</v>
       </c>
       <c r="N17">
-        <v>4.789196604186074</v>
+        <v>2.784664050306134</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.143778497123378</v>
+        <v>2.195908776215674</v>
       </c>
       <c r="C18">
-        <v>0.04526041188825047</v>
+        <v>0.1566072484750691</v>
       </c>
       <c r="D18">
-        <v>0.007380980627888611</v>
+        <v>0.001715328056274501</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.571931520121808</v>
+        <v>2.98785859579084</v>
       </c>
       <c r="G18">
-        <v>0.002649772653393414</v>
+        <v>0.0008509957813342758</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2010600605687429</v>
+        <v>0.08286541677762571</v>
       </c>
       <c r="K18">
-        <v>1.590216460563084</v>
+        <v>1.988443360969796</v>
       </c>
       <c r="L18">
-        <v>0.3001325121176848</v>
+        <v>0.1726906681507927</v>
       </c>
       <c r="M18">
-        <v>0.4590975094301228</v>
+        <v>0.3992415165722747</v>
       </c>
       <c r="N18">
-        <v>4.790071189512147</v>
+        <v>2.784425380290401</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.14043174738066</v>
+        <v>2.179049987652547</v>
       </c>
       <c r="C19">
-        <v>0.04487217634930118</v>
+        <v>0.1551572776684367</v>
       </c>
       <c r="D19">
-        <v>0.007380987516866888</v>
+        <v>0.001704501856316654</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.570361357226702</v>
+        <v>2.977123116512942</v>
       </c>
       <c r="G19">
-        <v>0.002650110670918609</v>
+        <v>0.0008515757473483987</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2010994651594942</v>
+        <v>0.08289732796784932</v>
       </c>
       <c r="K19">
-        <v>1.586742730497889</v>
+        <v>1.972086063744001</v>
       </c>
       <c r="L19">
-        <v>0.3000192158491828</v>
+        <v>0.171722219382012</v>
       </c>
       <c r="M19">
-        <v>0.4585731732342921</v>
+        <v>0.3963620233125198</v>
       </c>
       <c r="N19">
-        <v>4.790382393653388</v>
+        <v>2.784392856243358</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.155565090977461</v>
+        <v>2.255166460308885</v>
       </c>
       <c r="C20">
-        <v>0.04661967664060285</v>
+        <v>0.1616993471963895</v>
       </c>
       <c r="D20">
-        <v>0.007381217378956251</v>
+        <v>0.001753388792893773</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.577529086301212</v>
+        <v>3.025758957282648</v>
       </c>
       <c r="G20">
-        <v>0.002648598915455701</v>
+        <v>0.0008489725531416743</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2009242320133033</v>
+        <v>0.08275739273902261</v>
       </c>
       <c r="K20">
-        <v>1.602432499141486</v>
+        <v>2.045926963048657</v>
       </c>
       <c r="L20">
-        <v>0.3005370039172348</v>
+        <v>0.1760978238278383</v>
       </c>
       <c r="M20">
-        <v>0.4609474377896916</v>
+        <v>0.4093645969366264</v>
       </c>
       <c r="N20">
-        <v>4.789041903726911</v>
+        <v>2.784731393388597</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.207680675929169</v>
+        <v>2.515591331529265</v>
       </c>
       <c r="C21">
-        <v>0.05249825821883292</v>
+        <v>0.18400793151892</v>
       </c>
       <c r="D21">
-        <v>0.007386527322209346</v>
+        <v>0.0019212744996846</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.603393231003224</v>
+        <v>3.195171852992786</v>
       </c>
       <c r="G21">
-        <v>0.002643682979447789</v>
+        <v>0.0008403379083208513</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2003720210102671</v>
+        <v>0.08235280782450261</v>
       </c>
       <c r="K21">
-        <v>1.656155825501685</v>
+        <v>2.298372696303289</v>
       </c>
       <c r="L21">
-        <v>0.3024154551413432</v>
+        <v>0.1911221649200172</v>
       </c>
       <c r="M21">
-        <v>0.4691815178214611</v>
+        <v>0.4538828744602839</v>
       </c>
       <c r="N21">
-        <v>4.785587729347412</v>
+        <v>2.789374646706023</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.242686500021193</v>
+        <v>2.689680390401236</v>
       </c>
       <c r="C22">
-        <v>0.05634596004475156</v>
+        <v>0.1988710097159441</v>
       </c>
       <c r="D22">
-        <v>0.007393346897282882</v>
+        <v>0.002034643338660658</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.621624393042509</v>
+        <v>3.310772630428943</v>
       </c>
       <c r="G22">
-        <v>0.002640591341769083</v>
+        <v>0.0008347705040059494</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2000382869042632</v>
+        <v>0.08213902913950477</v>
       </c>
       <c r="K22">
-        <v>1.692018194362163</v>
+        <v>2.466992945054869</v>
       </c>
       <c r="L22">
-        <v>0.3037462633042196</v>
+        <v>0.2012039630567415</v>
       </c>
       <c r="M22">
-        <v>0.4747541100189352</v>
+        <v>0.4836645953566148</v>
       </c>
       <c r="N22">
-        <v>4.784112980625707</v>
+        <v>2.795205761230704</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.223916802478527</v>
+        <v>2.596383503293794</v>
       </c>
       <c r="C23">
-        <v>0.05429182567648638</v>
+        <v>0.1909097866778779</v>
       </c>
       <c r="D23">
-        <v>0.007389402781948107</v>
+        <v>0.001973736691178729</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.611772639702963</v>
+        <v>3.248600458225667</v>
       </c>
       <c r="G23">
-        <v>0.002642230351092405</v>
+        <v>0.0008377354940817652</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2002139258514752</v>
+        <v>0.08224837420074138</v>
       </c>
       <c r="K23">
-        <v>1.672809055446862</v>
+        <v>2.376638454185553</v>
       </c>
       <c r="L23">
-        <v>0.3030265674969073</v>
+        <v>0.1957976240026795</v>
       </c>
       <c r="M23">
-        <v>0.4717624425054865</v>
+        <v>0.4677022142335403</v>
       </c>
       <c r="N23">
-        <v>4.784828432923064</v>
+        <v>2.79182529871278</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.154729261106468</v>
+        <v>2.250969843211578</v>
       </c>
       <c r="C24">
-        <v>0.04652368594484813</v>
+        <v>0.1613389466025268</v>
       </c>
       <c r="D24">
-        <v>0.007381187600415728</v>
+        <v>0.001750692663923914</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.577128765566755</v>
+        <v>3.023066506384538</v>
       </c>
       <c r="G24">
-        <v>0.002648681317770103</v>
+        <v>0.0008491150696945239</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2009337172986747</v>
+        <v>0.08276483488045017</v>
       </c>
       <c r="K24">
-        <v>1.601567100140272</v>
+        <v>2.041856550667774</v>
       </c>
       <c r="L24">
-        <v>0.3005080467455699</v>
+        <v>0.1758563747197783</v>
       </c>
       <c r="M24">
-        <v>0.4608160873506293</v>
+        <v>0.4086475916732439</v>
       </c>
       <c r="N24">
-        <v>4.789111569038539</v>
+        <v>2.784700057078169</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.08416388757351</v>
+        <v>1.892595855958916</v>
       </c>
       <c r="C25">
-        <v>0.03816684817384441</v>
+        <v>0.1304167259006732</v>
       </c>
       <c r="D25">
-        <v>0.007386919869417419</v>
+        <v>0.001520056961638261</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.545461230585119</v>
+        <v>2.798204821779123</v>
       </c>
       <c r="G25">
-        <v>0.002656163664111299</v>
+        <v>0.0008617620689953321</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2018272412963178</v>
+        <v>0.08352829669089523</v>
       </c>
       <c r="K25">
-        <v>1.527946103996157</v>
+        <v>1.693894981146229</v>
       </c>
       <c r="L25">
-        <v>0.2982360272937257</v>
+        <v>0.1553366747251417</v>
       </c>
       <c r="M25">
-        <v>0.4498312867634624</v>
+        <v>0.3474765788325485</v>
       </c>
       <c r="N25">
-        <v>4.797089659075596</v>
+        <v>2.787873587089777</v>
       </c>
       <c r="O25">
         <v>0</v>
